--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: Battery label text, upper right section): "MODEL (型號/型号): C41N2503"</t>
+          <t>Page 1 (loc: Label text, upper right section): "MODEL (型號/型名): C41N2503"</t>
         </is>
       </c>
     </row>
@@ -469,8 +469,8 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: Battery label text, left section under ASUS logo): "Rating:+15.6V==49.5Wh"
-Page 1 (loc: Battery label text, right section near PSE mark): "15.6Vdc"</t>
+          <t>Page 1 (loc: Label text, left section under ASUS logo): "Rating:+15.6V==49.5Wh"
+Page 1 (loc: Label text, right section near PSE mark): "15.6Vdc"</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Page 1 (loc: Battery label text, left section under ASUS logo): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: Label text, left section under ASUS logo): "Rating:+15.6V==49.5Wh"</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: Battery label text, left section under ASUS logo): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
+          <t>Page 1 (loc: Label text, left section under ASUS logo): "Capacity : 3174mAh(Typical)"</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: Battery label text, left section under ASUS logo): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"
-Page 1 (loc: Battery label text, right section near recycle icon): "R45065 3082mAh"</t>
+          <t>Page 1 (loc: Label text, left section under ASUS logo): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"
+Page 1 (loc: Label text, right section near recycling symbol): "R45065 3082mAh"</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Page 1 (loc: Battery label text, left section under ASUS logo): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"
-Page 1 (loc: Battery label text, left section under ASUS logo): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: Label text, left section under ASUS logo): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"
+Page 1 (loc: Label text, right section near PSE mark): "15.6Vdc"</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "MODEL (型號/型名): C41N2503"</t>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "MODEL (型號/型名): C41N2503"</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh"</t>
         </is>
       </c>
     </row>
@@ -484,14 +484,12 @@
           <t>典型/正常電池容量,Wh</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Rating:+15.6V==49.5Wh"</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -504,7 +502,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical)"</t>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
         </is>
       </c>
     </row>
@@ -519,7 +517,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
         </is>
       </c>
     </row>
@@ -529,12 +527,14 @@
           <t>額定能量,Wh</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh"</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。檔案為電池標籤展開圖，頁碼固定為1。標籤上未明確標示額定能量(Wh)，故 rated_energy_wh 為 null。</t>
+          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。檔案為電池標籤展開圖，頁碼固定為1。typical battery capacity (Wh) 未在標籤中明確提供，故為 null。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -484,12 +484,14 @@
           <t>典型/正常電池容量,Wh</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh (Rated)"</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -532,7 +534,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh (Rated)"</t>
         </is>
       </c>
     </row>
@@ -544,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。檔案為電池標籤展開圖，頁碼固定為1。typical battery capacity (Wh) 未在標籤中明確提供，故為 null。</t>
+          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。頁碼採絕對 1-based。此為電池標籤展開圖，所有數值均直接取自標籤印刷內容。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "MODEL (型號/型名): C41N2503"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "MODEL (型號/型名): C41N2503"</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Rating:+15.6V==49.5Wh"</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh (Rated)"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Rating:+15.6V==49.5Wh"</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical)"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
         </is>
       </c>
     </row>
@@ -529,14 +529,12 @@
           <t>額定能量,Wh</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Page 1 (loc: cropped_image:Battery Label Artwork): "Rating:+15.6V==49.5Wh (Rated)"</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -546,7 +544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。頁碼採絕對 1-based。此為電池標籤展開圖，所有數值均直接取自標籤印刷內容。</t>
+          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。標籤上僅提供典型能量(Wh)與容量(mAh)，未明確標示額定能量(Wh)，因此 rated_energy_wh 為 null。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。標籤上僅提供典型能量(Wh)與容量(mAh)，未明確標示額定能量(Wh)，因此 rated_energy_wh 為 null。</t>
+          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。檔案為電池標籤展開圖，頁碼固定為1。標籤上未明確標示額定能量（Wh），因此 rated_energy_wh 為 null。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "MODEL (型號/型名): C41N2503"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "MODEL (型號/型号): C41N2503"</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical)"</t>
+          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含部分中文、日文、德文等多語警告文字。檔案為電池標籤展開圖，頁碼固定為1。標籤上未明確標示額定能量（Wh），因此 rated_energy_wh 為 null。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。額定能量(Wh)未在標籤上單獨標示，僅有典型能量49.5Wh，故rated_energy_wh為null。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "MODEL (型號/型号): C41N2503"</t>
+          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "MODEL(型號/型号):C41N2503"</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "標稱電壓:15.6V"</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "Rating:+15.6V==49.5Wh"</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
+          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "Capacity : 3174mAh(Typical)"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS C41N2503 Battery Label.png): "Capacity : 3174mAh(Typical) / 3082mAh(Rated)"</t>
+          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "額定容量:3082mAh"</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,14 @@
           <t>額定能量,Wh</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>無</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "額定能量:48.1Wh"</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -544,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。額定能量(Wh)未在標籤上單獨標示，僅有典型能量49.5Wh，故rated_energy_wh為null。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均直接取自電池標籤展開圖。頁碼為1。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -459,7 +459,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "MODEL(型號/型号):C41N2503"</t>
+          <t>Page 1 (loc: cropped_image:model_name.png): "MODEL(型號/型号):C41N2503"</t>
         </is>
       </c>
     </row>
@@ -474,7 +474,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "標稱電壓:15.6V"</t>
+          <t>Page 1 (loc: cropped_image:nominal_voltage_v.png): "標稱電壓:15.6V"</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "Rating:+15.6V==49.5Wh"</t>
+          <t>Page 1 (loc: cropped_image:typ_batt_capacity_wh.png): "Rating:+15.6V==49.5Wh"</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "Capacity : 3174mAh(Typical)"</t>
+          <t>Page 1 (loc: cropped_image:typ_capacity_mah.png): "3174mAh(Typical)"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "額定容量:3082mAh"</t>
+          <t>Page 1 (loc: cropped_image:rated_capacity_mah.png): "3082mAh(Rated)"</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:ASUS Battery Label Artwork.png): "額定能量:48.1Wh"</t>
+          <t>Page 1 (loc: cropped_image:rated_energy_wh.png): "額定能量:48.1Wh"</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均直接取自電池標籤展開圖。頁碼為1。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均直接取自OCR內容與圖片，無推測。頁碼為1（單一標籤圖）。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:typ_capacity_mah.png): "3174mAh(Typical)"</t>
+          <t>Page 1 (loc: cropped_image:typ_capacity_mah.png): "Capacity : 3174mAh(Typical)"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:rated_capacity_mah.png): "3082mAh(Rated)"</t>
+          <t>Page 1 (loc: cropped_image:rated_capacity_mah.png): "額定容量:3082mAh"</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均直接取自OCR內容與圖片，無推測。頁碼為1（單一標籤圖）。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均來自切圖 OCR，頁碼為1。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:typ_capacity_mah.png): "Capacity : 3174mAh(Typical)"</t>
+          <t>Page 1 (loc: cropped_image:typ_capacity_mah.png): "3174mAh(Typical)"</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Page 1 (loc: cropped_image:rated_capacity_mah.png): "額定容量:3082mAh"</t>
+          <t>Page 1 (loc: cropped_image:rated_capacity_mah.png): "3082mAh(Rated)"</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均來自切圖 OCR，頁碼為1。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。頁碼為1（單一電池標籤展開圖）。所有數值均直接取自OCR內容與圖片，無臆測。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。頁碼採絕對 1-based。所有數值均來自標籤切圖 OCR，無需使用 hints 搜尋。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。頁碼採絕對1-based。所有數值均來自切圖OCR，無需使用 hints 搜尋。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
+++ b/output/excel/single_120QAN07H-3 (UX8407_906QA416H)_20250729.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。頁碼採絕對1-based。所有數值均來自切圖OCR，無需使用 hints 搜尋。</t>
+          <t>主要語言為英文，並含有中文、日文、德文等多語警告文字。所有數值均直接取自OCR結果與圖片，無推測。頁碼為絕對1-based。</t>
         </is>
       </c>
     </row>
